--- a/biology/Médecine/1366_en_santé_et_médecine/1366_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1366_en_santé_et_médecine/1366_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1366_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1366_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1366 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1366_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1366_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er août : Jeanne Bacon fonde l'hôtel-Dieu de Villers-Bocage, en Normandie, par une charte que Louis Thézart, évêque de Bayeux, complètera en 1369[1].
-Le pape Urbain V confirme la fondation de l'université d'Orange, à laquelle l'empereur Charles IV vient d'accorder en 1365, avec le statut de studium generale, le droit d'enseigner la médecine et d'en attribuer les grades[2].
-Le pape Urbain V entérine l'usage que les écoliers de Paris, dont ceux de la faculté de médecine, soient assis par terre pour écouter les leçons, par respect pour leurs maîtres qui, eux, enseignent « en chaire »[3].
-Le roi Charles V exempte les barbiers de Paris du guet de nuit au Châtelet, « et consacre ainsi l'égalité des barbiers et des chirurgiens[4] ».
-Fondation de l'hôpital Saint-Jacques de Blois dont les chanoines, moins d'un siècle plus tard, se seront approprié les revenus et les biens et où « personne ne prend[ra] plus soin des pauvres[5] ».
-Olivier et Tiennette Brecel fondent à Dinan, en Bretagne, l'aumônerie de Saint-Jacques et Saint-Yves, « pour l'entretien d'un religieux de l'ordre de Saint-Mathurin qui d[oit] recevoir et loger tous les pèlerins qui s'y ser[ont] présentés[6] ».
-Avant 1366 : fondation de l'hôpital du Colombier à Romans, en Dauphiné, dans le quartier de Villeneuve, entre les portes de Jacquemart et Bistour[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er août : Jeanne Bacon fonde l'hôtel-Dieu de Villers-Bocage, en Normandie, par une charte que Louis Thézart, évêque de Bayeux, complètera en 1369.
+Le pape Urbain V confirme la fondation de l'université d'Orange, à laquelle l'empereur Charles IV vient d'accorder en 1365, avec le statut de studium generale, le droit d'enseigner la médecine et d'en attribuer les grades.
+Le pape Urbain V entérine l'usage que les écoliers de Paris, dont ceux de la faculté de médecine, soient assis par terre pour écouter les leçons, par respect pour leurs maîtres qui, eux, enseignent « en chaire ».
+Le roi Charles V exempte les barbiers de Paris du guet de nuit au Châtelet, « et consacre ainsi l'égalité des barbiers et des chirurgiens ».
+Fondation de l'hôpital Saint-Jacques de Blois dont les chanoines, moins d'un siècle plus tard, se seront approprié les revenus et les biens et où « personne ne prend[ra] plus soin des pauvres ».
+Olivier et Tiennette Brecel fondent à Dinan, en Bretagne, l'aumônerie de Saint-Jacques et Saint-Yves, « pour l'entretien d'un religieux de l'ordre de Saint-Mathurin qui d[oit] recevoir et loger tous les pèlerins qui s'y ser[ont] présentés ».
+Avant 1366 : fondation de l'hôpital du Colombier à Romans, en Dauphiné, dans le quartier de Villeneuve, entre les portes de Jacquemart et Bistour.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1366_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1366_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13 juin : Michel de Brêche (né vers 1299), maître en médecine et docteur en théologie de l'université de Paris, médecin et aumônier du roi Jean II le Bon, et évêque du Mans[8],[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>13 juin : Michel de Brêche (né vers 1299), maître en médecine et docteur en théologie de l'université de Paris, médecin et aumônier du roi Jean II le Bon, et évêque du Mans,.</t>
         </is>
       </c>
     </row>
